--- a/DailyReport.xlsx
+++ b/DailyReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="70">
   <si>
     <t>Ticket</t>
   </si>
@@ -68,39 +68,42 @@
     <t>0m</t>
   </si>
   <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>GC-1101</t>
+  </si>
+  <si>
+    <t>tool to give GFU</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>LEX-4128</t>
+  </si>
+  <si>
+    <t>delete rosetta to jira log</t>
+  </si>
+  <si>
+    <t>Vandwalle, Julien (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>UT-96</t>
+  </si>
+  <si>
+    <t>develop ut_maillistmanager, part 1</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
     <t>GC-1086</t>
   </si>
   <si>
     <t>gc_enrichapplication : check that Active MQ is down</t>
   </si>
   <si>
-    <t>GC-1101</t>
-  </si>
-  <si>
-    <t>tool to give GFU</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>UT-96</t>
-  </si>
-  <si>
-    <t>develop ut_maillistmanager, part 1</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>LEX-4128</t>
-  </si>
-  <si>
-    <t>delete rosetta to jira log</t>
-  </si>
-  <si>
-    <t>Vandwalle, Julien (LNG-PAR)</t>
-  </si>
-  <si>
     <t>UT-98</t>
   </si>
   <si>
@@ -110,6 +113,15 @@
     <t>In progress</t>
   </si>
   <si>
+    <t>GC-1087</t>
+  </si>
+  <si>
+    <t>supervision of reference loading</t>
+  </si>
+  <si>
+    <t>In testing</t>
+  </si>
+  <si>
     <t>UT-97</t>
   </si>
   <si>
@@ -119,15 +131,6 @@
     <t>1d</t>
   </si>
   <si>
-    <t>GC-1087</t>
-  </si>
-  <si>
-    <t>supervision of reference loading</t>
-  </si>
-  <si>
-    <t>In testing</t>
-  </si>
-  <si>
     <t>SRC-1142</t>
   </si>
   <si>
@@ -155,6 +158,30 @@
     <t>4d</t>
   </si>
   <si>
+    <t>FC-474</t>
+  </si>
+  <si>
+    <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
+  </si>
+  <si>
+    <t>FC-440</t>
+  </si>
+  <si>
+    <t>Part 3 : Revue XSL - java - complete XSL to achieve conversion</t>
+  </si>
+  <si>
+    <t>Lefebvre, Christophe (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>FC-453</t>
+  </si>
+  <si>
+    <t>Change the way the SGML to XML conversion is implemented</t>
+  </si>
+  <si>
     <t>FC-475</t>
   </si>
   <si>
@@ -164,30 +191,6 @@
     <t>1d 4h</t>
   </si>
   <si>
-    <t>FC-440</t>
-  </si>
-  <si>
-    <t>Part 3 : Revue XSL - java - complete XSL to achieve conversion</t>
-  </si>
-  <si>
-    <t>Lefebvre, Christophe (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>FC-474</t>
-  </si>
-  <si>
-    <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
-  </si>
-  <si>
-    <t>FC-453</t>
-  </si>
-  <si>
-    <t>Change the way the SGML to XML conversion is implemented</t>
-  </si>
-  <si>
     <t>TS-513</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
   </si>
   <si>
     <t>1w</t>
+  </si>
+  <si>
+    <t>BO-1431</t>
   </si>
   <si>
     <t>GC-913</t>
@@ -275,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="true"/>
@@ -292,6 +298,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -338,39 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -439,6 +445,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -568,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>16</v>
@@ -579,10 +596,10 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
@@ -603,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>16</v>
@@ -614,16 +631,16 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>15</v>
@@ -635,10 +652,10 @@
         <v>16</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>16</v>
@@ -649,10 +666,10 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>13</v>
@@ -670,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="43" t="s">
         <v>17</v>
@@ -684,16 +701,16 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>15</v>
@@ -705,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6" s="54" t="s">
         <v>17</v>
@@ -719,10 +736,10 @@
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>13</v>
@@ -731,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="62" t="s">
         <v>16</v>
@@ -743,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="66" t="s">
         <v>16</v>
@@ -754,10 +771,10 @@
     </row>
     <row r="8">
       <c r="A8" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>13</v>
@@ -766,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>16</v>
@@ -778,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J8" s="77" t="s">
         <v>16</v>
@@ -789,10 +806,10 @@
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>13</v>
@@ -801,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>16</v>
@@ -813,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J9" s="88" t="s">
         <v>16</v>
@@ -824,19 +841,19 @@
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>16</v>
@@ -848,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="99" t="s">
         <v>16</v>
@@ -859,19 +876,19 @@
     </row>
     <row r="11">
       <c r="A11" s="101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="106" t="s">
         <v>16</v>
@@ -880,7 +897,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="109" t="s">
         <v>17</v>
@@ -894,19 +911,19 @@
     </row>
     <row r="12">
       <c r="A12" s="112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="117" t="s">
         <v>16</v>
@@ -915,7 +932,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I12" s="120" t="s">
         <v>17</v>
@@ -935,13 +952,13 @@
         <v>51</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="126" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="128" t="s">
         <v>16</v>
@@ -970,13 +987,13 @@
         <v>55</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E14" s="138" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="139" t="s">
         <v>16</v>
@@ -985,7 +1002,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="141" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I14" s="142" t="s">
         <v>17</v>
@@ -1005,13 +1022,13 @@
         <v>57</v>
       </c>
       <c r="C15" s="147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E15" s="149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="150" t="s">
         <v>16</v>
@@ -1020,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="152" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I15" s="153" t="s">
         <v>17</v>
@@ -1034,19 +1051,19 @@
     </row>
     <row r="16">
       <c r="A16" s="156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="159" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="161" t="s">
         <v>16</v>
@@ -1055,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="H16" s="163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="165" t="s">
         <v>16</v>
@@ -1069,19 +1086,19 @@
     </row>
     <row r="17">
       <c r="A17" s="167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="171" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="172" t="s">
         <v>16</v>
@@ -1090,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" s="175" t="s">
         <v>17</v>
@@ -1104,36 +1121,71 @@
     </row>
     <row r="18">
       <c r="A18" s="178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="179" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="181" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="182" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="185" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="189" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="190" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="182" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="184" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="185" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="187" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="188" t="s">
+      <c r="E19" s="193" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="195" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="196" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="198" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="199" t="s">
         <v>16</v>
       </c>
     </row>

--- a/DailyReport.xlsx
+++ b/DailyReport.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datatypes in Java" r:id="rId3" sheetId="1"/>
+    <sheet name="Status Report" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>Ticket</t>
   </si>
@@ -47,63 +47,66 @@
     <t>Target Date</t>
   </si>
   <si>
+    <t>UT-96</t>
+  </si>
+  <si>
+    <t>develop ut_maillistmanager, part 1</t>
+  </si>
+  <si>
+    <t>Baskar, Shakila Rani (Infosys)</t>
+  </si>
+  <si>
+    <t>Dzuba, Vassili (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>GC-1086</t>
+  </si>
+  <si>
+    <t>gc_enrichapplication : check that Active MQ is down</t>
+  </si>
+  <si>
     <t>GC-1051</t>
   </si>
   <si>
     <t>gc_kram : implement accès à BDL</t>
   </si>
   <si>
-    <t>Baskar, Shakila Rani (Infosys)</t>
-  </si>
-  <si>
-    <t>Dzuba, Vassili (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0m</t>
-  </si>
-  <si>
     <t>2m</t>
   </si>
   <si>
+    <t>LEX-4128</t>
+  </si>
+  <si>
+    <t>delete rosetta to jira log</t>
+  </si>
+  <si>
+    <t>Vandwalle, Julien (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
     <t>GC-1101</t>
   </si>
   <si>
     <t>tool to give GFU</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>LEX-4128</t>
-  </si>
-  <si>
-    <t>delete rosetta to jira log</t>
-  </si>
-  <si>
-    <t>Vandwalle, Julien (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>UT-96</t>
-  </si>
-  <si>
-    <t>develop ut_maillistmanager, part 1</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>GC-1086</t>
-  </si>
-  <si>
-    <t>gc_enrichapplication : check that Active MQ is down</t>
-  </si>
-  <si>
     <t>UT-98</t>
   </si>
   <si>
@@ -113,22 +116,37 @@
     <t>In progress</t>
   </si>
   <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>UT-97</t>
+  </si>
+  <si>
+    <t>develop to_maillistmanager, part 2</t>
+  </si>
+  <si>
+    <t>In testing</t>
+  </si>
+  <si>
     <t>GC-1087</t>
   </si>
   <si>
     <t>supervision of reference loading</t>
   </si>
   <si>
-    <t>In testing</t>
-  </si>
-  <si>
-    <t>UT-97</t>
-  </si>
-  <si>
-    <t>develop to_maillistmanager, part 2</t>
-  </si>
-  <si>
-    <t>1d</t>
+    <t>FC-506</t>
+  </si>
+  <si>
+    <t>production JK_DEC for element from producteur SAJD are not converted</t>
+  </si>
+  <si>
+    <t>Kasim, Shaik Rizwan (Infosys)</t>
+  </si>
+  <si>
+    <t>HORNN, AI QUOC DANIEL (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>4d</t>
   </si>
   <si>
     <t>SRC-1142</t>
@@ -137,25 +155,37 @@
     <t>JURICA - Alerte par Mail en cas de retard de livraison des fichier XML par le prestataire</t>
   </si>
   <si>
-    <t>Kasim, Shaik Rizwan (Infosys)</t>
-  </si>
-  <si>
     <t>Farzollahi, Mohammad (LNG-PAR)</t>
   </si>
   <si>
     <t>4h</t>
   </si>
   <si>
-    <t>FC-506</t>
-  </si>
-  <si>
-    <t>production JK_DEC for element from producteur SAJD are not converted</t>
-  </si>
-  <si>
-    <t>HORNN, AI QUOC DANIEL (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>4d</t>
+    <t>FC-440</t>
+  </si>
+  <si>
+    <t>Part 3 : Revue XSL - java - complete XSL to achieve conversion</t>
+  </si>
+  <si>
+    <t>Lefebvre, Christophe (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>FC-475</t>
+  </si>
+  <si>
+    <t>apply needed changes for JP_2_0 on profil document - create case:references</t>
+  </si>
+  <si>
+    <t>1d 4h</t>
+  </si>
+  <si>
+    <t>FC-453</t>
+  </si>
+  <si>
+    <t>Change the way the SGML to XML conversion is implemented</t>
   </si>
   <si>
     <t>FC-474</t>
@@ -164,33 +194,6 @@
     <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
   </si>
   <si>
-    <t>FC-440</t>
-  </si>
-  <si>
-    <t>Part 3 : Revue XSL - java - complete XSL to achieve conversion</t>
-  </si>
-  <si>
-    <t>Lefebvre, Christophe (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>FC-453</t>
-  </si>
-  <si>
-    <t>Change the way the SGML to XML conversion is implemented</t>
-  </si>
-  <si>
-    <t>FC-475</t>
-  </si>
-  <si>
-    <t>apply needed changes for JP_2_0 on profil document - create case:references</t>
-  </si>
-  <si>
-    <t>1d 4h</t>
-  </si>
-  <si>
     <t>TS-513</t>
   </si>
   <si>
@@ -216,6 +219,12 @@
   </si>
   <si>
     <t>BO-1431</t>
+  </si>
+  <si>
+    <t>Updated DPs</t>
+  </si>
+  <si>
+    <t>Update Commentss</t>
   </si>
   <si>
     <t>GC-913</t>
@@ -298,42 +307,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -579,27 +588,27 @@
         <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
@@ -611,22 +620,22 @@
         <v>15</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -640,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -675,36 +684,36 @@
         <v>13</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>13</v>
@@ -716,30 +725,30 @@
         <v>15</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>13</v>
@@ -748,33 +757,33 @@
         <v>14</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>13</v>
@@ -783,33 +792,33 @@
         <v>14</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>13</v>
@@ -818,375 +827,375 @@
         <v>14</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J9" s="88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="97" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J10" s="99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I11" s="109" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E12" s="116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" s="121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" s="122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E13" s="127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="130" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="134" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" s="135" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="138" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="141" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I14" s="142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" s="143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="145" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="149" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="152" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I15" s="153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J15" s="154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" s="155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="163" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I16" s="164" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J16" s="165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" s="166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="171" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="174" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I17" s="175" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17" s="176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="178" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="179" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="183" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G18" s="184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I18" s="186" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J18" s="187" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K18" s="188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="189" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B19" s="190" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="192" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="193" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="195" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="196" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I19" s="197" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19" s="198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" s="199" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DailyReport.xlsx
+++ b/DailyReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>Ticket</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Target Date</t>
   </si>
   <si>
-    <t>UT-96</t>
-  </si>
-  <si>
-    <t>develop ut_maillistmanager, part 1</t>
+    <t>UT-101</t>
+  </si>
+  <si>
+    <t>make mail library</t>
   </si>
   <si>
     <t>Baskar, Shakila Rani (Infosys)</t>
@@ -59,96 +59,111 @@
     <t>Dzuba, Vassili (LNG-PAR)</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>LEX-4128</t>
+  </si>
+  <si>
+    <t>delete rosetta to jira log</t>
+  </si>
+  <si>
+    <t>Vandwalle, Julien (LNG-PAR)</t>
+  </si>
+  <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t/>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>GC-1127</t>
+  </si>
+  <si>
+    <t>enrichapplication : sending mails</t>
+  </si>
+  <si>
+    <t>UT-98</t>
+  </si>
+  <si>
+    <t>development of to_updategfuforjp20</t>
+  </si>
+  <si>
+    <t>GC-1124</t>
+  </si>
+  <si>
+    <t>enrichapplication : use the mailing list manager</t>
+  </si>
+  <si>
+    <t>UT-97</t>
+  </si>
+  <si>
+    <t>develop to_maillistmanager, part 2</t>
+  </si>
+  <si>
+    <t>PC-234</t>
+  </si>
+  <si>
+    <t>PL: upgrade of the utility libraries</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
   <si>
     <t>2d</t>
   </si>
   <si>
-    <t>0m</t>
-  </si>
-  <si>
-    <t>GC-1086</t>
-  </si>
-  <si>
-    <t>gc_enrichapplication : check that Active MQ is down</t>
-  </si>
-  <si>
-    <t>GC-1051</t>
-  </si>
-  <si>
-    <t>gc_kram : implement accès à BDL</t>
-  </si>
-  <si>
-    <t>2m</t>
-  </si>
-  <si>
-    <t>LEX-4128</t>
-  </si>
-  <si>
-    <t>delete rosetta to jira log</t>
-  </si>
-  <si>
-    <t>Vandwalle, Julien (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>GC-1101</t>
-  </si>
-  <si>
-    <t>tool to give GFU</t>
-  </si>
-  <si>
-    <t>UT-98</t>
-  </si>
-  <si>
-    <t>development of to_updategfuforjp20</t>
-  </si>
-  <si>
-    <t>In progress</t>
+    <t>GC-1123</t>
+  </si>
+  <si>
+    <t>enrichapplication : update of workflow progress</t>
+  </si>
+  <si>
+    <t>In testing</t>
+  </si>
+  <si>
+    <t>GC-1087</t>
+  </si>
+  <si>
+    <t>supervision of reference loading</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>A new artifact has been created in SVN at http://intrasvn.lexisnexis.fr:8000/svn/svn_tools/trunk/to_refsImportSupervision, Code has been committed to the above mentioned location.</t>
+  </si>
+  <si>
+    <t>FC-506</t>
+  </si>
+  <si>
+    <t>production JK_DEC for element from producteur SAJD are not converted</t>
+  </si>
+  <si>
+    <t>Kasim, Shaik Rizwan (Infosys)</t>
+  </si>
+  <si>
+    <t>HORNN, AI QUOC DANIEL (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>FC-474</t>
+  </si>
+  <si>
+    <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
   </si>
   <si>
     <t>1d</t>
   </si>
   <si>
-    <t>UT-97</t>
-  </si>
-  <si>
-    <t>develop to_maillistmanager, part 2</t>
-  </si>
-  <si>
-    <t>In testing</t>
-  </si>
-  <si>
-    <t>GC-1087</t>
-  </si>
-  <si>
-    <t>supervision of reference loading</t>
-  </si>
-  <si>
-    <t>FC-506</t>
-  </si>
-  <si>
-    <t>production JK_DEC for element from producteur SAJD are not converted</t>
-  </si>
-  <si>
-    <t>Kasim, Shaik Rizwan (Infosys)</t>
-  </si>
-  <si>
-    <t>HORNN, AI QUOC DANIEL (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>4d</t>
-  </si>
-  <si>
     <t>SRC-1142</t>
   </si>
   <si>
@@ -158,7 +173,7 @@
     <t>Farzollahi, Mohammad (LNG-PAR)</t>
   </si>
   <si>
-    <t>4h</t>
+    <t>Updated the details in the ticket. Need some clarifications on the implementation.</t>
   </si>
   <si>
     <t>FC-440</t>
@@ -170,9 +185,18 @@
     <t>Lefebvre, Christophe (LNG-PAR)</t>
   </si>
   <si>
+    <t>Changes have been committed in SVN.  To be validated.</t>
+  </si>
+  <si>
     <t>3d</t>
   </si>
   <si>
+    <t>FC-453</t>
+  </si>
+  <si>
+    <t>Change the way the SGML to XML conversion is implemented</t>
+  </si>
+  <si>
     <t>FC-475</t>
   </si>
   <si>
@@ -182,18 +206,6 @@
     <t>1d 4h</t>
   </si>
   <si>
-    <t>FC-453</t>
-  </si>
-  <si>
-    <t>Change the way the SGML to XML conversion is implemented</t>
-  </si>
-  <si>
-    <t>FC-474</t>
-  </si>
-  <si>
-    <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
-  </si>
-  <si>
     <t>TS-513</t>
   </si>
   <si>
@@ -206,25 +218,19 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>BO-1427</t>
+    <t>BO-1431</t>
   </si>
   <si>
     <t>suivi infosys</t>
   </si>
   <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>1w</t>
-  </si>
-  <si>
-    <t>BO-1431</t>
-  </si>
-  <si>
-    <t>Updated DPs</t>
-  </si>
-  <si>
-    <t>Update Commentss</t>
+    <t>GC-1138</t>
+  </si>
+  <si>
+    <t>Adding a new control to section structuration service</t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
   <si>
     <t>GC-913</t>
@@ -290,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="true"/>
@@ -307,85 +313,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -418,13 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -434,23 +444,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -460,33 +459,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -588,62 +613,62 @@
         <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>13</v>
@@ -652,25 +677,25 @@
         <v>14</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -684,36 +709,36 @@
         <v>13</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>13</v>
@@ -722,33 +747,33 @@
         <v>14</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>13</v>
@@ -757,33 +782,33 @@
         <v>14</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>13</v>
@@ -792,33 +817,33 @@
         <v>14</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="76" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>13</v>
@@ -830,267 +855,267 @@
         <v>37</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="J10" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" s="100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="E11" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="108" t="s">
-        <v>19</v>
-      </c>
       <c r="I11" s="109" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>52</v>
-      </c>
       <c r="I12" s="120" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" s="129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="130" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I13" s="131" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="137" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="138" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G14" s="140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="141" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I14" s="142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14" s="143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E15" s="149" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G15" s="151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="152" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J15" s="154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="163" t="s">
-        <v>28</v>
-      </c>
       <c r="I16" s="164" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J16" s="165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1101,31 +1126,31 @@
         <v>65</v>
       </c>
       <c r="C17" s="169" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E17" s="171" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="174" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I17" s="175" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J17" s="176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1133,69 +1158,104 @@
         <v>68</v>
       </c>
       <c r="B18" s="179" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C18" s="180" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F18" s="183" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G18" s="184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18" s="186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" s="187" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K18" s="188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="189" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="C19" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="192" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="193" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="195" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="196" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="191" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="192" t="s">
+      <c r="J19" s="198" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="200" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="201" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="202" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="193" t="s">
+      <c r="E20" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="195" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="196" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="197" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="198" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="199" t="s">
-        <v>17</v>
+      <c r="F20" s="205" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="206" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="207" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="209" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="210" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DailyReport.xlsx
+++ b/DailyReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
   <si>
     <t>Ticket</t>
   </si>
@@ -47,64 +47,94 @@
     <t>Target Date</t>
   </si>
   <si>
+    <t>PC-237</t>
+  </si>
+  <si>
+    <t>PL refactoring, step 1</t>
+  </si>
+  <si>
+    <t>Baskar, Shakila Rani (Infosys)</t>
+  </si>
+  <si>
+    <t>Dzuba, Vassili (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>LEX-4128</t>
+  </si>
+  <si>
+    <t>delete rosetta to jira log</t>
+  </si>
+  <si>
+    <t>Vandwalle, Julien (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>GC-1127</t>
+  </si>
+  <si>
+    <t>enrichapplication : sending mails</t>
+  </si>
+  <si>
+    <t>UT-98</t>
+  </si>
+  <si>
+    <t>development of to_updategfuforjp20</t>
+  </si>
+  <si>
+    <t>GC-1124</t>
+  </si>
+  <si>
+    <t>enrichapplication : use the mailing list manager</t>
+  </si>
+  <si>
+    <t>UT-97</t>
+  </si>
+  <si>
+    <t>develop to_maillistmanager, part 2</t>
+  </si>
+  <si>
+    <t>GC-1087</t>
+  </si>
+  <si>
+    <t>supervision of reference loading</t>
+  </si>
+  <si>
+    <t>A new artifact has been created in SVN at http://intrasvn.lexisnexis.fr:8000/svn/svn_tools/trunk/to_refsImportSupervision, Code has been committed to the above mentioned location.</t>
+  </si>
+  <si>
     <t>UT-101</t>
   </si>
   <si>
     <t>make mail library</t>
   </si>
   <si>
-    <t>Baskar, Shakila Rani (Infosys)</t>
-  </si>
-  <si>
-    <t>Dzuba, Vassili (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0m</t>
-  </si>
-  <si>
-    <t>LEX-4128</t>
-  </si>
-  <si>
-    <t>delete rosetta to jira log</t>
-  </si>
-  <si>
-    <t>Vandwalle, Julien (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>GC-1127</t>
-  </si>
-  <si>
-    <t>enrichapplication : sending mails</t>
-  </si>
-  <si>
-    <t>UT-98</t>
-  </si>
-  <si>
-    <t>development of to_updategfuforjp20</t>
-  </si>
-  <si>
-    <t>GC-1124</t>
-  </si>
-  <si>
-    <t>enrichapplication : use the mailing list manager</t>
-  </si>
-  <si>
-    <t>UT-97</t>
-  </si>
-  <si>
-    <t>develop to_maillistmanager, part 2</t>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>GC-1123</t>
+  </si>
+  <si>
+    <t>enrichapplication : update of workflow progress</t>
+  </si>
+  <si>
+    <t>In testing</t>
   </si>
   <si>
     <t>PC-234</t>
@@ -113,67 +143,61 @@
     <t>PL: upgrade of the utility libraries</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>FC-474</t>
+  </si>
+  <si>
+    <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
+  </si>
+  <si>
+    <t>Kasim, Shaik Rizwan (Infosys)</t>
+  </si>
+  <si>
+    <t>HORNN, AI QUOC DANIEL (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>FC-506</t>
+  </si>
+  <si>
+    <t>production JK_DEC for element from producteur SAJD are not converted</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>SRC-1142</t>
+  </si>
+  <si>
+    <t>JURICA - Alerte par Mail en cas de retard de livraison des fichier XML par le prestataire</t>
+  </si>
+  <si>
+    <t>Farzollahi, Mohammad (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>Updated the details in the ticket. Need some clarifications on the implementation.</t>
+  </si>
+  <si>
+    <t>FC-453</t>
+  </si>
+  <si>
+    <t>Change the way the SGML to XML conversion is implemented</t>
+  </si>
+  <si>
+    <t>Lefebvre, Christophe (LNG-PAR)</t>
+  </si>
+  <si>
+    <t>Changes have been committed in SVN.  To be validated.</t>
   </si>
   <si>
     <t>2d</t>
   </si>
   <si>
-    <t>GC-1123</t>
-  </si>
-  <si>
-    <t>enrichapplication : update of workflow progress</t>
-  </si>
-  <si>
-    <t>In testing</t>
-  </si>
-  <si>
-    <t>GC-1087</t>
-  </si>
-  <si>
-    <t>supervision of reference loading</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>A new artifact has been created in SVN at http://intrasvn.lexisnexis.fr:8000/svn/svn_tools/trunk/to_refsImportSupervision, Code has been committed to the above mentioned location.</t>
-  </si>
-  <si>
-    <t>FC-506</t>
-  </si>
-  <si>
-    <t>production JK_DEC for element from producteur SAJD are not converted</t>
-  </si>
-  <si>
-    <t>Kasim, Shaik Rizwan (Infosys)</t>
-  </si>
-  <si>
-    <t>HORNN, AI QUOC DANIEL (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>4d</t>
-  </si>
-  <si>
-    <t>FC-474</t>
-  </si>
-  <si>
-    <t>JP_2_0 : apply the needed changes on XSLT to match the expected output</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>SRC-1142</t>
-  </si>
-  <si>
-    <t>JURICA - Alerte par Mail en cas de retard de livraison des fichier XML par le prestataire</t>
-  </si>
-  <si>
-    <t>Farzollahi, Mohammad (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>Updated the details in the ticket. Need some clarifications on the implementation.</t>
+    <t>FC-475</t>
+  </si>
+  <si>
+    <t>apply needed changes for JP_2_0 on profil document - create case:references</t>
+  </si>
+  <si>
+    <t>1d 4h</t>
   </si>
   <si>
     <t>FC-440</t>
@@ -182,28 +206,22 @@
     <t>Part 3 : Revue XSL - java - complete XSL to achieve conversion</t>
   </si>
   <si>
-    <t>Lefebvre, Christophe (LNG-PAR)</t>
-  </si>
-  <si>
-    <t>Changes have been committed in SVN.  To be validated.</t>
-  </si>
-  <si>
     <t>3d</t>
   </si>
   <si>
-    <t>FC-453</t>
-  </si>
-  <si>
-    <t>Change the way the SGML to XML conversion is implemented</t>
-  </si>
-  <si>
-    <t>FC-475</t>
-  </si>
-  <si>
-    <t>apply needed changes for JP_2_0 on profil document - create case:references</t>
-  </si>
-  <si>
-    <t>1d 4h</t>
+    <t>TS-474</t>
+  </si>
+  <si>
+    <t>Suppress the debug.mode property</t>
+  </si>
+  <si>
+    <t>Ummer Faruk, Shaik (Infosys)</t>
+  </si>
+  <si>
+    <t>BO-1431</t>
+  </si>
+  <si>
+    <t>suivi infosys</t>
   </si>
   <si>
     <t>TS-513</t>
@@ -212,25 +230,13 @@
     <t>Fusion de branches ts_conversion</t>
   </si>
   <si>
-    <t>Ummer Faruk, Shaik (Infosys)</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>BO-1431</t>
-  </si>
-  <si>
-    <t>suivi infosys</t>
-  </si>
-  <si>
     <t>GC-1138</t>
   </si>
   <si>
     <t>Adding a new control to section structuration service</t>
   </si>
   <si>
-    <t>6h</t>
+    <t>BO-1434</t>
   </si>
   <si>
     <t>GC-913</t>
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="true"/>
@@ -376,33 +382,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -465,15 +482,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
@@ -509,9 +530,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -817,22 +856,22 @@
         <v>14</v>
       </c>
       <c r="E8" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="77" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>16</v>
       </c>
       <c r="K8" s="78" t="s">
         <v>16</v>
@@ -840,10 +879,10 @@
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>36</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>13</v>
@@ -852,19 +891,19 @@
         <v>14</v>
       </c>
       <c r="E9" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="87" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="87" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="88" t="s">
         <v>16</v>
@@ -887,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>16</v>
@@ -899,10 +938,10 @@
         <v>17</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J10" s="99" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K10" s="100" t="s">
         <v>16</v>
@@ -910,19 +949,19 @@
     </row>
     <row r="11">
       <c r="A11" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="102" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" s="103" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F11" s="106" t="s">
         <v>16</v>
@@ -931,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11" s="109" t="s">
         <v>17</v>
@@ -945,16 +984,16 @@
     </row>
     <row r="12">
       <c r="A12" s="112" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="116" t="s">
         <v>21</v>
@@ -966,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I12" s="120" t="s">
         <v>17</v>
@@ -980,31 +1019,31 @@
     </row>
     <row r="13">
       <c r="A13" s="123" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="127" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G13" s="129" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="130" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I13" s="131" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J13" s="132" t="s">
         <v>16</v>
@@ -1015,28 +1054,28 @@
     </row>
     <row r="14">
       <c r="A14" s="134" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="135" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="137" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14" s="140" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="141" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I14" s="142" t="s">
         <v>17</v>
@@ -1050,19 +1089,19 @@
     </row>
     <row r="15">
       <c r="A15" s="145" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="148" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="150" t="s">
         <v>57</v>
@@ -1071,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="152" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I15" s="153" t="s">
         <v>17</v>
@@ -1085,28 +1124,28 @@
     </row>
     <row r="16">
       <c r="A16" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="163" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="157" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="158" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="159" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="163" t="s">
-        <v>63</v>
       </c>
       <c r="I16" s="164" t="s">
         <v>17</v>
@@ -1120,28 +1159,28 @@
     </row>
     <row r="17">
       <c r="A17" s="167" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="168" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="169" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D17" s="170" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="171" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G17" s="173" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="174" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I17" s="175" t="s">
         <v>17</v>
@@ -1155,19 +1194,19 @@
     </row>
     <row r="18">
       <c r="A18" s="178" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="179" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F18" s="183" t="s">
         <v>16</v>
@@ -1190,31 +1229,31 @@
     </row>
     <row r="19">
       <c r="A19" s="189" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="190" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="191" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="192" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E19" s="193" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F19" s="194" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="195" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H19" s="196" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I19" s="197" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="J19" s="198" t="s">
         <v>16</v>
@@ -1225,19 +1264,19 @@
     </row>
     <row r="20">
       <c r="A20" s="200" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="201" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="202" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="203" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E20" s="204" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F20" s="205" t="s">
         <v>16</v>
@@ -1255,6 +1294,111 @@
         <v>16</v>
       </c>
       <c r="K20" s="210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="211" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="212" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="213" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="214" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="215" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="216" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="217" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="218" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="222" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="223" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="224" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="225" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="226" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="228" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="229" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="230" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="231" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="233" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="234" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="235" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="236" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="237" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="238" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="239" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="240" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="242" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="243" t="s">
         <v>16</v>
       </c>
     </row>
